--- a/jlptstudy.net/N5/Expressions.xlsx
+++ b/jlptstudy.net/N5/Expressions.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Japanese" sheetId="1" r:id="rId1"/>
-    <sheet name="English" sheetId="2" r:id="rId2"/>
+    <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>どうも・ありがとうございました。</t>
   </si>
@@ -33,6 +33,18 @@
   <si>
     <t xml:space="preserve">(said before eating a meal)
 </t>
+  </si>
+  <si>
+    <t>いらっしゃい・ませ。</t>
+  </si>
+  <si>
+    <t>(では) おげんきで。</t>
+  </si>
+  <si>
+    <t>Welcome (to a store)</t>
+  </si>
+  <si>
+    <t>(when parting) Stay healthy</t>
   </si>
 </sst>
 </file>
@@ -388,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
@@ -409,6 +421,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:1" ht="41.25" x14ac:dyDescent="0.9">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="41.25" x14ac:dyDescent="0.9">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -417,23 +439,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="84.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="41.25" x14ac:dyDescent="0.9">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="41.25" x14ac:dyDescent="0.9">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="41.25" x14ac:dyDescent="0.9">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.9">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/jlptstudy.net/N5/Expressions.xlsx
+++ b/jlptstudy.net/N5/Expressions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>どうも・ありがとうございました。</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>(when parting) Stay healthy</t>
+  </si>
+  <si>
+    <t>おねがいします。</t>
+  </si>
+  <si>
+    <t>おはようございます。</t>
+  </si>
+  <si>
+    <t>Please (do for me)</t>
+  </si>
+  <si>
+    <t>Good morning (very polite)</t>
   </si>
 </sst>
 </file>
@@ -400,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
@@ -431,6 +443,16 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:1" ht="41.25" x14ac:dyDescent="0.9">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="41.25" x14ac:dyDescent="0.9">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -439,10 +461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
@@ -483,6 +505,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="41.25" x14ac:dyDescent="0.9">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="41.25" x14ac:dyDescent="0.9">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jlptstudy.net/N5/Expressions.xlsx
+++ b/jlptstudy.net/N5/Expressions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>どうも・ありがとうございました。</t>
   </si>
@@ -57,24 +57,97 @@
   </si>
   <si>
     <t>Good morning (very polite)</t>
+  </si>
+  <si>
+    <t>ごちそうさま・でした</t>
+  </si>
+  <si>
+    <t>こちらこそ。</t>
+  </si>
+  <si>
+    <t>Thank you for the meal (very polite)</t>
+  </si>
+  <si>
+    <t>It is I who should say so</t>
+  </si>
+  <si>
+    <t>ごめんください。</t>
+  </si>
+  <si>
+    <t>May I come in</t>
+  </si>
+  <si>
+    <t>ごめんなさい。</t>
+  </si>
+  <si>
+    <t>Sorry</t>
+  </si>
+  <si>
+    <t>こんにちは。</t>
+  </si>
+  <si>
+    <t>Hello (good day)</t>
+  </si>
+  <si>
+    <t>こんばんは。</t>
+  </si>
+  <si>
+    <t>Good Evening</t>
+  </si>
+  <si>
+    <t>さよなら｜さようなら。</t>
+  </si>
+  <si>
+    <t>Farewell</t>
+  </si>
+  <si>
+    <t>しつれいしました。</t>
+  </si>
+  <si>
+    <t>Sorry for my rudeness</t>
+  </si>
+  <si>
+    <t>しつれいします。</t>
+  </si>
+  <si>
+    <t>すみません。</t>
+  </si>
+  <si>
+    <t>では、また。</t>
+  </si>
+  <si>
+    <t>Ok, I'll see you later</t>
+  </si>
+  <si>
+    <t>(いいえ) どういたしまして。</t>
+  </si>
+  <si>
+    <t>(Not at all) you're welcome</t>
+  </si>
+  <si>
+    <t>はじめまして。</t>
+  </si>
+  <si>
+    <t>Nice to meet you</t>
+  </si>
+  <si>
+    <t>(どうぞ) よろしく。</t>
+  </si>
+  <si>
+    <t>Pleased to meet you</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="18"/>
@@ -97,18 +170,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,15 +190,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,45 +475,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="41.25" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A6" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -461,64 +595,176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="41.25" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="84.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="84.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/jlptstudy.net/N5/Expressions.xlsx
+++ b/jlptstudy.net/N5/Expressions.xlsx
@@ -477,13 +477,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="41.25" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="84.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="41.25" x14ac:dyDescent="0.9"/>
